--- a/team_specific_matrix/Northeastern_A.xlsx
+++ b/team_specific_matrix/Northeastern_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1838565022421525</v>
+        <v>0.1908396946564886</v>
       </c>
       <c r="C2">
-        <v>0.5695067264573991</v>
+        <v>0.5572519083969466</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02690582959641256</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1524663677130045</v>
+        <v>0.1564885496183206</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06726457399103139</v>
+        <v>0.07251908396946564</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007633587786259542</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C3">
-        <v>0.02290076335877863</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02290076335877863</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8015267175572519</v>
+        <v>0.7763157894736842</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1450381679389313</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06060606060606061</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7575757575757576</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1818181818181818</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0658682634730539</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05389221556886228</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2574850299401197</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02395209580838323</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.155688622754491</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="R6">
-        <v>0.0718562874251497</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="S6">
-        <v>0.3712574850299401</v>
+        <v>0.3814432989690721</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09352517985611511</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01438848920863309</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08633093525179857</v>
+        <v>0.08</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1654676258992806</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007194244604316547</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1942446043165468</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
-        <v>0.05755395683453238</v>
+        <v>0.06</v>
       </c>
       <c r="S7">
-        <v>0.381294964028777</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08443271767810026</v>
+        <v>0.08764044943820225</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01319261213720317</v>
+        <v>0.01573033707865169</v>
       </c>
       <c r="E8">
-        <v>0.002638522427440633</v>
+        <v>0.002247191011235955</v>
       </c>
       <c r="F8">
-        <v>0.08179419525065963</v>
+        <v>0.07415730337078652</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1372031662269129</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0316622691292876</v>
+        <v>0.02921348314606742</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1794195250659631</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="R8">
-        <v>0.0633245382585752</v>
+        <v>0.0696629213483146</v>
       </c>
       <c r="S8">
-        <v>0.4063324538258575</v>
+        <v>0.4179775280898876</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1284916201117318</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0111731843575419</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0335195530726257</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1229050279329609</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02793296089385475</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1899441340782123</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="R9">
-        <v>0.106145251396648</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="S9">
-        <v>0.3798882681564246</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1013306038894575</v>
+        <v>0.1013864818024263</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02661207778915046</v>
+        <v>0.02426343154246101</v>
       </c>
       <c r="E10">
-        <v>0.001023541453428864</v>
+        <v>0.0008665511265164644</v>
       </c>
       <c r="F10">
-        <v>0.0593654042988741</v>
+        <v>0.06239168110918544</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1105424769703173</v>
+        <v>0.1109185441941074</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02354145342886387</v>
+        <v>0.02339688041594454</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2507676560900716</v>
+        <v>0.2435008665511265</v>
       </c>
       <c r="R10">
-        <v>0.0767656090071648</v>
+        <v>0.0779896013864818</v>
       </c>
       <c r="S10">
-        <v>0.3500511770726714</v>
+        <v>0.3552859618717504</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08205128205128205</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="K11">
-        <v>0.1384615384615385</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L11">
-        <v>0.676923076923077</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02564102564102564</v>
+        <v>0.02314814814814815</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.007246376811594203</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="G12">
-        <v>0.7826086956521739</v>
+        <v>0.7866666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1449275362318841</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03623188405797102</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02898550724637681</v>
+        <v>0.02666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5833333333333334</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01630434782608696</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1956521739130435</v>
+        <v>0.1767441860465116</v>
       </c>
       <c r="I15">
-        <v>0.07065217391304347</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="J15">
-        <v>0.3152173913043478</v>
+        <v>0.3441860465116279</v>
       </c>
       <c r="K15">
-        <v>0.04347826086956522</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03804347826086957</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3206521739130435</v>
+        <v>0.3162790697674419</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.025</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2125</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="I16">
-        <v>0.09375</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="J16">
-        <v>0.375</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="K16">
-        <v>0.075</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03125</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="N16">
-        <v>0.00625</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="O16">
-        <v>0.0375</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.14375</v>
+        <v>0.1467391304347826</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01256281407035176</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.178391959798995</v>
+        <v>0.1824175824175824</v>
       </c>
       <c r="I17">
-        <v>0.09798994974874371</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="J17">
-        <v>0.4321608040201005</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="K17">
-        <v>0.09296482412060302</v>
+        <v>0.08351648351648351</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02261306532663317</v>
+        <v>0.01978021978021978</v>
       </c>
       <c r="N17">
-        <v>0.002512562814070352</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="O17">
-        <v>0.08040201005025126</v>
+        <v>0.07472527472527472</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08040201005025126</v>
+        <v>0.08791208791208792</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01449275362318841</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2028985507246377</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="I18">
-        <v>0.1304347826086956</v>
+        <v>0.1385542168674699</v>
       </c>
       <c r="J18">
-        <v>0.3840579710144927</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="K18">
-        <v>0.1159420289855072</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01449275362318841</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="N18">
-        <v>0.007246376811594203</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="O18">
-        <v>0.03623188405797102</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09420289855072464</v>
+        <v>0.108433734939759</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01906779661016949</v>
+        <v>0.01776198934280639</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2203389830508475</v>
+        <v>0.2255772646536412</v>
       </c>
       <c r="I19">
-        <v>0.100635593220339</v>
+        <v>0.1039076376554174</v>
       </c>
       <c r="J19">
-        <v>0.3697033898305085</v>
+        <v>0.3641207815275311</v>
       </c>
       <c r="K19">
-        <v>0.09851694915254237</v>
+        <v>0.09325044404973357</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02224576271186441</v>
+        <v>0.02042628774422735</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06885593220338983</v>
+        <v>0.07282415630550622</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.100635593220339</v>
+        <v>0.1021314387211368</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Northeastern_A.xlsx
+++ b/team_specific_matrix/Northeastern_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1908396946564886</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="C2">
-        <v>0.5572519083969466</v>
+        <v>0.5677655677655677</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02290076335877863</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1564885496183206</v>
+        <v>0.1501831501831502</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07251908396946564</v>
+        <v>0.07326007326007326</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006578947368421052</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C3">
-        <v>0.03289473684210526</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02631578947368421</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7763157894736842</v>
+        <v>0.7716049382716049</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1578947368421053</v>
+        <v>0.1604938271604938</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7631578947368421</v>
+        <v>0.775</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1842105263157895</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06185567010309279</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05154639175257732</v>
+        <v>0.04484304932735426</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2680412371134021</v>
+        <v>0.2690582959641256</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02577319587628866</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1443298969072165</v>
+        <v>0.1390134529147982</v>
       </c>
       <c r="R6">
-        <v>0.06701030927835051</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="S6">
-        <v>0.3814432989690721</v>
+        <v>0.3901345291479821</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09333333333333334</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01333333333333333</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1666666666666667</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006666666666666667</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.2011494252873563</v>
       </c>
       <c r="R7">
-        <v>0.06</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="S7">
-        <v>0.38</v>
+        <v>0.3908045977011494</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08764044943820225</v>
+        <v>0.08097165991902834</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01573033707865169</v>
+        <v>0.01417004048582996</v>
       </c>
       <c r="E8">
-        <v>0.002247191011235955</v>
+        <v>0.002024291497975709</v>
       </c>
       <c r="F8">
-        <v>0.07415730337078652</v>
+        <v>0.07489878542510121</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1348314606741573</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02921348314606742</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1685393258426966</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="R8">
-        <v>0.0696629213483146</v>
+        <v>0.06680161943319839</v>
       </c>
       <c r="S8">
-        <v>0.4179775280898876</v>
+        <v>0.4190283400809717</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1203703703703704</v>
+        <v>0.1191489361702128</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01388888888888889</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03240740740740741</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.1234042553191489</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02314814814814815</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2037037037037037</v>
+        <v>0.2085106382978723</v>
       </c>
       <c r="R9">
-        <v>0.1064814814814815</v>
+        <v>0.09787234042553192</v>
       </c>
       <c r="S9">
-        <v>0.375</v>
+        <v>0.3787234042553191</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1013864818024263</v>
+        <v>0.09531249999999999</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02426343154246101</v>
+        <v>0.02421875</v>
       </c>
       <c r="E10">
-        <v>0.0008665511265164644</v>
+        <v>0.00078125</v>
       </c>
       <c r="F10">
-        <v>0.06239168110918544</v>
+        <v>0.06640625</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1109185441941074</v>
+        <v>0.11171875</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02339688041594454</v>
+        <v>0.02265625</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2435008665511265</v>
+        <v>0.2453125</v>
       </c>
       <c r="R10">
-        <v>0.0779896013864818</v>
+        <v>0.07656250000000001</v>
       </c>
       <c r="S10">
-        <v>0.3552859618717504</v>
+        <v>0.35703125</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.07407407407407407</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08796296296296297</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="K11">
-        <v>0.1481481481481481</v>
+        <v>0.1491935483870968</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02314814814814815</v>
+        <v>0.02016129032258064</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.006666666666666667</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="G12">
-        <v>0.7866666666666666</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1466666666666667</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L12">
-        <v>0.03333333333333333</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02666666666666667</v>
+        <v>0.02339181286549707</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5789473684210527</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3421052631578947</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07894736842105263</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02325581395348837</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1767441860465116</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="I15">
-        <v>0.06976744186046512</v>
+        <v>0.06751054852320675</v>
       </c>
       <c r="J15">
-        <v>0.3441860465116279</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="K15">
-        <v>0.03720930232558139</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03255813953488372</v>
+        <v>0.02953586497890295</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3162790697674419</v>
+        <v>0.3206751054852321</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02717391304347826</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2065217391304348</v>
+        <v>0.1968911917098446</v>
       </c>
       <c r="I16">
-        <v>0.09239130434782608</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="J16">
-        <v>0.3695652173913043</v>
+        <v>0.383419689119171</v>
       </c>
       <c r="K16">
-        <v>0.08695652173913043</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02717391304347826</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="N16">
-        <v>0.005434782608695652</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="O16">
-        <v>0.03804347826086957</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1467391304347826</v>
+        <v>0.1450777202072539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01098901098901099</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1824175824175824</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="I17">
-        <v>0.0989010989010989</v>
+        <v>0.09689922480620156</v>
       </c>
       <c r="J17">
-        <v>0.4395604395604396</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="K17">
-        <v>0.08351648351648351</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01978021978021978</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="N17">
-        <v>0.002197802197802198</v>
+        <v>0.001937984496124031</v>
       </c>
       <c r="O17">
-        <v>0.07472527472527472</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08791208791208792</v>
+        <v>0.09108527131782945</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01204819277108434</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1807228915662651</v>
+        <v>0.1823204419889503</v>
       </c>
       <c r="I18">
-        <v>0.1385542168674699</v>
+        <v>0.1325966850828729</v>
       </c>
       <c r="J18">
-        <v>0.4096385542168675</v>
+        <v>0.4088397790055249</v>
       </c>
       <c r="K18">
-        <v>0.0963855421686747</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01204819277108434</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="N18">
-        <v>0.006024096385542169</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="O18">
-        <v>0.03614457831325301</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.108433734939759</v>
+        <v>0.1049723756906077</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01776198934280639</v>
+        <v>0.01586042823156225</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2255772646536412</v>
+        <v>0.2275971451229183</v>
       </c>
       <c r="I19">
-        <v>0.1039076376554174</v>
+        <v>0.1015067406819984</v>
       </c>
       <c r="J19">
-        <v>0.3641207815275311</v>
+        <v>0.3647898493259318</v>
       </c>
       <c r="K19">
-        <v>0.09325044404973357</v>
+        <v>0.09595559080095163</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02042628774422735</v>
+        <v>0.01982553528945281</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07282415630550622</v>
+        <v>0.06978588421887391</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1021314387211368</v>
+        <v>0.1046788263283109</v>
       </c>
     </row>
   </sheetData>
